--- a/OrderList.xlsx
+++ b/OrderList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9335" windowWidth="23040"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9215" windowWidth="23040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,9 +15,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-" numFmtId="166"/>
+    <numFmt formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-" numFmtId="167"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -45,8 +47,15 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -61,13 +70,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
@@ -76,7 +78,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -107,15 +110,22 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -130,13 +140,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -152,31 +155,30 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
@@ -203,13 +205,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,169 +313,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,17 +390,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,21 +404,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,16 +433,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,153 +475,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="12" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="20" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="8" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="7" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="13" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -654,9 +650,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1042,46 +1036,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="18" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="34.3333333333333"/>
+    <col customWidth="1" max="1" min="1" style="2" width="27.2222222222222"/>
     <col customWidth="1" max="2" min="2" style="2" width="26.8888888888889"/>
-    <col customWidth="1" max="3" min="3" style="2" width="35.4444444444444"/>
-    <col customWidth="1" max="4" min="4" style="2" width="31.7777777777778"/>
-    <col customWidth="1" max="5" min="5" style="2" width="17.7777777777778"/>
-    <col customWidth="1" max="16384" min="6" style="2" width="8.888888888888889"/>
+    <col customWidth="1" max="3" min="3" style="2" width="27.2222222222222"/>
+    <col customWidth="1" max="4" min="4" style="3" width="17.7777777777778"/>
+    <col customWidth="1" max="5" min="5" style="3" width="20.4444444444444"/>
+    <col customWidth="1" max="6" min="6" style="2" width="26.1111111111111"/>
+    <col customWidth="1" max="7" min="7" style="2" width="38"/>
+    <col customWidth="1" max="16384" min="8" style="2" width="8.888888888888889"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="39" r="1" s="3">
-      <c r="A1" s="3" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="39" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Tên khách</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Số điện thoại</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tên Sản phẩm</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thành tiền</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ngày đặt</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Địa chỉ</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1107,7 @@
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>2021-06-15 22:25:36.925633</t>
         </is>
@@ -1123,7 +1129,7 @@
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>2021-06-15 23:11:27.533585</t>
         </is>
@@ -1145,7 +1151,7 @@
           <t>Men vi khuẩn sống Việt Nhật</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>2021-06-15 23:24:16.382444</t>
         </is>
@@ -1167,31 +1173,66 @@
           <t>Men vi khuẩn sống Việt Nhật</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>2021-06-18 01:21:17.119433</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>2021-06-18 01:25:05.217552</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0987191143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bánh dinh duỡng Hebi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>124000</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-07-20 17:46:43.679426</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yên Lâm, Huyện Yên Mô, Tỉnh Ninh Bình</t>
         </is>
       </c>
     </row>

--- a/OrderList.xlsx
+++ b/OrderList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12395" windowWidth="28800"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9155" windowWidth="23040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,12 +15,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-" numFmtId="166"/>
-    <numFmt formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-" numFmtId="167"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="168"/>
+  <numFmts count="6">
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="167"/>
+    <numFmt formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-" numFmtId="168"/>
+    <numFmt formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-" numFmtId="169"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -48,6 +49,59 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -57,113 +111,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -177,8 +126,38 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -190,6 +169,28 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,175 +213,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,65 +392,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,6 +420,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -491,18 +472,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
@@ -511,148 +506,170 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="168">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="169">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="16" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="13" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="7" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="25" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="31" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="31" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="18" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="5" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1038,19 +1055,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="18" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="18"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="27.2222222222222"/>
     <col customWidth="1" max="2" min="2" style="2" width="26.8888888888889"/>
     <col customWidth="1" max="3" min="3" style="2" width="27.2222222222222"/>
     <col customWidth="1" max="4" min="4" style="3" width="17.7777777777778"/>
-    <col customWidth="1" max="5" min="5" style="3" width="20.4444444444444"/>
+    <col customWidth="1" max="5" min="5" style="5" width="20.4444444444444"/>
     <col customWidth="1" max="6" min="6" style="2" width="26.1111111111111"/>
     <col customWidth="1" max="7" min="7" style="2" width="38"/>
     <col customWidth="1" max="16384" min="8" style="2" width="8.888888888888889"/>
@@ -1093,289 +1110,359 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="2" s="3">
-      <c r="A2" s="0" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="2" s="7">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>0987191143</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="5" t="n">
         <v>124000</v>
       </c>
-      <c r="F2" s="0" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>2021-07-20 17:46:43.679426</t>
         </is>
       </c>
-      <c r="G2" s="0" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Yên Lâm, Huyện Yên Mô, Tỉnh Ninh Bình</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="3" s="3">
-      <c r="A3" s="0" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="3" s="7">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>0987191143</t>
         </is>
       </c>
-      <c r="C3" s="0" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>1600</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>2021-07-20 23:39:24.604245</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Phường Yên Hoà, Quận Cầu Giấy, TP Hà nội</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4" s="3">
-      <c r="A4" s="0" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="4" s="7">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>0987191143</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>1600000</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>2021-07-21 00:28:52.161226</t>
         </is>
       </c>
-      <c r="G4" s="0" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>Xã yên lâm, Huyện Yên Mô, Tỉnh Ninh Bình</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="5" s="3">
-      <c r="A5" s="0" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="5" s="7">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>0987191143</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>3200000</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>2021-07-21 00:49:17.929703</t>
         </is>
       </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Xã Yên Thái, Huyện Yên Mô, Tỉnh Ninh Bình</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="6" s="3">
-      <c r="A6" s="0" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="6" s="7">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Thọ</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>0987191143</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>39360000</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>2021-07-22 00:33:03.364693</t>
         </is>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Xã Hoàng Sa, Hoàng Sa, TP Đà Nẵng</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="7" s="3">
-      <c r="A7" s="0" t="inlineStr">
+    <row customHeight="1" ht="14.4" r="7" s="7">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>0987191146</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Men vi khuẩn sống Việt Nhật</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr"/>
-      <c r="F7" s="0" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>2021-07-25 01:47:19.942153</t>
         </is>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Láng Hạ, Đống Đa, hà Nội</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>0987191146</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Bánh dinh duỡng Hebi</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="5" t="n">
         <v>1600000</v>
       </c>
-      <c r="F8" s="0" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>2021-07-25 01:49:02.603116</t>
         </is>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Láng Hạ, Đống Đa, hà Nội</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Lê Quang Thọ</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>84973271208</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>bánh dinh dưỡng hebi</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>3200000.0</t>
         </is>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>44402.68219724094</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="F9" s="8" t="n">
+        <v>44402.68219724537</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>Bình Minh, Khoái Châu, Hưng Yên</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Lạng</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>84326766643</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Men vi khuẩn sống Việt Nhật</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>1500000.0</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>44402.88684638889</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Quang Trung, Bình Gia, Lạng Sơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nguyễn Đức Phú</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0981231231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bánh dinh dưỡng Hebi</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4800000.0</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>44402.90982982631</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Láng Hạ, Đống Đa, Hà Nội</t>
         </is>
       </c>
     </row>
